--- a/test.xlsx
+++ b/test.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="testSheet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,12 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>HOP</t>
   </si>
   <si>
     <t>burdayım</t>
+  </si>
+  <si>
+    <t>evet</t>
+  </si>
+  <si>
+    <t>tarafından</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
   </si>
 </sst>
 </file>
@@ -346,7 +359,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,6 +378,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
